--- a/Result_interperatation.xlsx
+++ b/Result_interperatation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FCB767-F6EE-409C-BB73-F357C9F5E236}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5007C31A-4117-4A12-93FF-1C2001408A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{99EBA48C-3474-44E5-9890-B343502D57DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{99EBA48C-3474-44E5-9890-B343502D57DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6347F3F7-D747-4D9C-8CFF-669EAFDBC0CB}">
   <dimension ref="A4:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="117" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="117" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Result_interperatation.xlsx
+++ b/Result_interperatation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5007C31A-4117-4A12-93FF-1C2001408A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A154D75C-EF81-4558-8E44-700AC9DA735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{99EBA48C-3474-44E5-9890-B343502D57DF}"/>
+    <workbookView xWindow="16224" yWindow="4476" windowWidth="17280" windowHeight="12204" xr2:uid="{99EBA48C-3474-44E5-9890-B343502D57DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6347F3F7-D747-4D9C-8CFF-669EAFDBC0CB}">
   <dimension ref="A4:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="117" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="117" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1742,8 +1742,7 @@
         <v>795.69999999999993</v>
       </c>
       <c r="C89" s="3">
-        <f>D69*$E$86</f>
-        <v>633.64</v>
+        <v>608</v>
       </c>
       <c r="D89" s="3">
         <v>460</v>
@@ -1757,8 +1756,7 @@
         <v>129</v>
       </c>
       <c r="C90" s="3">
-        <f>C11 * 1000</f>
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="D90" s="3">
         <v>62</v>
@@ -1807,7 +1805,7 @@
       </c>
       <c r="C93" s="3">
         <f>SUM(C87:C92)</f>
-        <v>10759.64</v>
+        <v>10681</v>
       </c>
       <c r="D93" s="3">
         <f>SUM(D87:D92)</f>
@@ -1832,8 +1830,7 @@
         <v>730</v>
       </c>
       <c r="C95" s="3">
-        <f>C24 * 1000</f>
-        <v>1060</v>
+        <v>737</v>
       </c>
       <c r="D95" s="3">
         <f>D44 * 1000</f>
@@ -1850,7 +1847,7 @@
       </c>
       <c r="C96" s="3">
         <f>C93-C95</f>
-        <v>9699.64</v>
+        <v>9944</v>
       </c>
       <c r="D96" s="3">
         <f>D93-D95</f>
@@ -1884,7 +1881,7 @@
       </c>
       <c r="C99" s="3">
         <f>C96  * 1000/ (C98 * 8000)</f>
-        <v>1.2161033099297893</v>
+        <v>1.246740220661986</v>
       </c>
       <c r="D99" s="3">
         <f>D96  * 1000/ (D98 * 8000)</f>
